--- a/Resources/config/tower.xlsx
+++ b/Resources/config/tower.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27525" windowHeight="13230"/>
+    <workbookView windowWidth="27525" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <t>独特功能</t>
   </si>
   <si>
-    <t>效果</t>
+    <t>建造花费</t>
   </si>
   <si>
     <t>基本</t>
@@ -1124,7 +1124,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1156,7 +1156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1172,8 +1172,11 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F2" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" ht="27" spans="1:5">
+    <row r="3" ht="27" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1189,8 +1192,11 @@
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="F3" s="1">
+        <v>101</v>
+      </c>
     </row>
-    <row r="4" ht="27" spans="1:5">
+    <row r="4" ht="27" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1206,8 +1212,11 @@
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F4" s="1">
+        <v>102</v>
+      </c>
     </row>
-    <row r="5" ht="27" spans="1:5">
+    <row r="5" ht="27" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1223,8 +1232,11 @@
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F5" s="1">
+        <v>103</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1240,8 +1252,11 @@
       <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="F6" s="1">
+        <v>104</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1257,8 +1272,11 @@
       <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F7" s="1">
+        <v>105</v>
+      </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1274,8 +1292,11 @@
       <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="F8" s="1">
+        <v>106</v>
+      </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1291,8 +1312,11 @@
       <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="F9" s="1">
+        <v>107</v>
+      </c>
     </row>
-    <row r="10" ht="27" spans="1:5">
+    <row r="10" ht="27" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1308,8 +1332,11 @@
       <c r="E10" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="F10" s="1">
+        <v>108</v>
+      </c>
     </row>
-    <row r="11" ht="27" spans="1:5">
+    <row r="11" ht="27" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1325,8 +1352,11 @@
       <c r="E11" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="F11" s="1">
+        <v>109</v>
+      </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1342,8 +1372,11 @@
       <c r="E12" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="F12" s="1">
+        <v>110</v>
+      </c>
     </row>
-    <row r="13" ht="40.5" spans="1:5">
+    <row r="13" ht="40.5" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1358,6 +1391,9 @@
       </c>
       <c r="E13" s="2" t="s">
         <v>41</v>
+      </c>
+      <c r="F13" s="1">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/config/tower.xlsx
+++ b/Resources/config/tower.xlsx
@@ -1124,7 +1124,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/Resources/config/tower.xlsx
+++ b/Resources/config/tower.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27525" windowHeight="12630"/>
+    <workbookView windowWidth="27525" windowHeight="12630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>id</t>
   </si>
@@ -142,6 +142,54 @@
   </si>
   <si>
     <t>塔可以从任何距离射击，但频率远远低于在范围内的敌人。该塔的等级越高，它可以射击远程导弹越频繁，爆炸的半径越大。</t>
+  </si>
+  <si>
+    <t>攻击类型</t>
+  </si>
+  <si>
+    <t>属性类型</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>普通属性</t>
+  </si>
+  <si>
+    <t>速度属性</t>
+  </si>
+  <si>
+    <t>百分百属性</t>
+  </si>
+  <si>
+    <t>时间属性</t>
+  </si>
+  <si>
+    <t>冰冻</t>
+  </si>
+  <si>
+    <t>伤害</t>
+  </si>
+  <si>
+    <t>攻击速度</t>
+  </si>
+  <si>
+    <t>冷冻率</t>
+  </si>
+  <si>
+    <t>瞄准时间</t>
+  </si>
+  <si>
+    <t>旋转速度</t>
+  </si>
+  <si>
+    <t>冻结时间</t>
+  </si>
+  <si>
+    <t>弹丸速度</t>
+  </si>
+  <si>
+    <t>解冻时间</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1171,7 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1406,14 +1454,103 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>101</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3">
+        <v>201</v>
+      </c>
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3">
+        <v>301</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="5:10">
+      <c r="E4">
+        <v>102</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4">
+        <v>302</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="5:10">
+      <c r="E5">
+        <v>103</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5">
+        <v>303</v>
+      </c>
+      <c r="J5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
